--- a/09-design-dynamic/Weapons-James-Gibson-Bond.xlsx
+++ b/09-design-dynamic/Weapons-James-Gibson-Bond.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5783\09-design-dynamic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83D499-03FA-4B7B-B432-E6E895EFE021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rules of Play" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Weapons" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Rules of Play" sheetId="1" r:id="rId1"/>
+    <sheet name="Weapons" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,80 +39,77 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t xml:space="preserve">Based on Bond's book, chapter 11, page 186-193.</t>
+    <t>Based on Bond's book, chapter 11, page 186-193.</t>
   </si>
   <si>
     <t xml:space="preserve">The game is similar to "Valkyria Chronicles": a series of military-themed tactical role-playing video games </t>
   </si>
   <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Valkyria_Chronicles</t>
+    <t>https://en.wikipedia.org/wiki/Valkyria_Chronicles</t>
   </si>
   <si>
-    <t xml:space="preserve">Each weapon has 3 important values: #shots, damage, hit-chance.</t>
+    <t>Each weapon has 3 important values: #shots, damage, hit-chance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Weapon</t>
+    <t>Weapon</t>
   </si>
   <si>
-    <t xml:space="preserve">"Personality"</t>
+    <t>"Personality"</t>
   </si>
   <si>
-    <t xml:space="preserve">Shots</t>
+    <t>Shots</t>
   </si>
   <si>
-    <t xml:space="preserve">Damage/shot</t>
+    <t>Damage/shot</t>
   </si>
   <si>
-    <t xml:space="preserve">Chance to hit, by distance from target</t>
+    <t>Chance to hit, by distance from target</t>
   </si>
   <si>
-    <t xml:space="preserve">Expected damage, by distance from target</t>
+    <t>Expected damage, by distance from target</t>
   </si>
   <si>
-    <t xml:space="preserve">Original</t>
+    <t>Original</t>
   </si>
   <si>
-    <t xml:space="preserve">Pistol</t>
+    <t>Pistol</t>
   </si>
   <si>
-    <t xml:space="preserve">Basic weapon; decent in most situations but doesn't excel.</t>
+    <t>Basic weapon; decent in most situations but doesn't excel.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rifle</t>
+    <t>Rifle</t>
   </si>
   <si>
-    <t xml:space="preserve">Good choice for mid and long range.</t>
+    <t>Good choice for mid and long range.</t>
   </si>
   <si>
-    <t xml:space="preserve">ShotGun</t>
+    <t>ShotGun</t>
   </si>
   <si>
-    <t xml:space="preserve">Deadly nearby, useless faraway. Only one shot; risk of miss.</t>
+    <t>Deadly nearby, useless faraway. Only one shot; risk of miss.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sniper</t>
+    <t>Sniper</t>
   </si>
   <si>
-    <t xml:space="preserve">Terrible at close range, but fantastic at long range.</t>
+    <t>Terrible at close range, but fantastic at long range.</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine</t>
+    <t>Machine</t>
   </si>
   <si>
-    <t xml:space="preserve">Fires many shots; reliable but not very powerful.</t>
+    <t>Fires many shots; reliable but not very powerful.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -105,22 +118,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -135,7 +133,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -143,16 +141,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -176,7 +169,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -184,93 +177,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -329,15 +262,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -346,7 +297,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -354,7 +305,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -375,6 +326,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -393,12 +345,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -407,18 +356,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -427,13 +384,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Weapons!$Q$2:$Z$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -465,29 +429,29 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Weapons!$Q$3:$Z$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.66666666666667</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.66666666666667</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.66666666666667</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.33333333333333</c:v>
+                  <c:v>5.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.33333333333333</c:v>
+                  <c:v>5.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -496,18 +460,23 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.66666666666667</c:v>
+                  <c:v>2.6666666666666639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.66666666666667</c:v>
+                  <c:v>2.6666666666666639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.33333333333333</c:v>
+                  <c:v>1.3333333333333359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E23A-4833-BEBE-1F886872F782}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -524,12 +493,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -538,18 +504,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -558,13 +532,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Weapons!$Q$2:$Z$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -596,20 +577,20 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Weapons!$Q$4:$Z$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.5</c:v>
@@ -621,13 +602,13 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.5</c:v>
@@ -639,6 +620,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E23A-4833-BEBE-1F886872F782}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -655,12 +641,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -669,18 +652,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -689,13 +680,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Weapons!$Q$2:$Z$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -727,35 +725,35 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Weapons!$Q$5:$Z$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.33333333333333</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.33333333333333</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.66666666666667</c:v>
+                  <c:v>6.6666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.66666666666667</c:v>
+                  <c:v>6.6666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.33333333333333</c:v>
+                  <c:v>3.3333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.66666666666667</c:v>
+                  <c:v>1.6666666666666698</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -770,6 +768,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E23A-4833-BEBE-1F886872F782}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -786,12 +789,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -800,18 +800,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -820,13 +828,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Weapons!$Q$2:$Z$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -858,20 +873,20 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Weapons!$Q$6:$Z$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.33333333333333</c:v>
+                  <c:v>1.3333333333333359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.66666666666667</c:v>
+                  <c:v>2.6666666666666639</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -880,19 +895,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.33333333333333</c:v>
+                  <c:v>5.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.33333333333333</c:v>
+                  <c:v>5.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.66666666666667</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.66666666666667</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33333333333333</c:v>
+                  <c:v>5.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -901,6 +916,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E23A-4833-BEBE-1F886872F782}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -917,12 +937,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -931,18 +948,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -951,13 +976,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Weapons!$Q$2:$Z$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -989,20 +1021,20 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Weapons!$Q$7:$Z$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1011,16 +1043,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1.9999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1.9999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1032,7 +1064,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E23A-4833-BEBE-1F886872F782}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1040,7 +1085,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="39127026"/>
         <c:axId val="38845384"/>
       </c:lineChart>
@@ -1058,7 +1103,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1068,13 +1113,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38845384"/>
@@ -1095,7 +1141,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1115,13 +1161,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39127026"/>
@@ -1149,35 +1196,42 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -1191,14 +1245,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8033400" y="1388160"/>
-        <a:ext cx="3399480" cy="2784960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1211,603 +1271,882 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="0" width="5.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="5.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="4" width="5.01"/>
+    <col min="1" max="1" width="8.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.47265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3671875" customWidth="1"/>
+    <col min="5" max="5" width="5.26171875" style="2" customWidth="1"/>
+    <col min="6" max="15" width="5.3125" customWidth="1"/>
+    <col min="16" max="16" width="5" style="3" customWidth="1"/>
+    <col min="17" max="26" width="5.3125" customWidth="1"/>
+    <col min="27" max="27" width="5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="7"/>
+      <c r="AA1" s="6"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="9" t="n">
+      <c r="B2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="8">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="8">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="n">
+      <c r="J2" s="8">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="n">
+      <c r="K2" s="8">
         <v>6</v>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="L2" s="8">
         <v>7</v>
       </c>
-      <c r="M2" s="9" t="n">
+      <c r="M2" s="8">
         <v>8</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="8">
         <v>9</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="8">
         <v>10</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="9" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="8">
         <v>1</v>
       </c>
-      <c r="R2" s="9" t="n">
+      <c r="R2" s="8">
         <v>2</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="8">
         <v>3</v>
       </c>
-      <c r="T2" s="9" t="n">
+      <c r="T2" s="8">
         <v>4</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="8">
         <v>5</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="8">
         <v>6</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="8">
         <v>7</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="8">
         <v>8</v>
       </c>
-      <c r="Y2" s="9" t="n">
+      <c r="Y2" s="8">
         <v>9</v>
       </c>
-      <c r="Z2" s="9" t="n">
+      <c r="Z2" s="8">
         <v>10</v>
       </c>
-      <c r="AA2" s="4"/>
+      <c r="AA2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K3" s="10" t="n">
+      <c r="F3" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G3" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H3" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K3" s="9">
         <v>0.5</v>
       </c>
-      <c r="L3" s="10" t="n">
+      <c r="L3" s="9">
         <v>0.5</v>
       </c>
-      <c r="M3" s="10" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N3" s="10" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O3" s="10" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="Q3" s="11" t="n">
-        <f aca="false">F3*$D3*$C3</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="R3" s="11" t="n">
-        <f aca="false">G3*$D3*$C3</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="S3" s="11" t="n">
-        <f aca="false">H3*$D3*$C3</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="T3" s="11" t="n">
-        <f aca="false">I3*$D3*$C3</f>
-        <v>5.33333333333333</v>
-      </c>
-      <c r="U3" s="11" t="n">
-        <f aca="false">J3*$D3*$C3</f>
-        <v>5.33333333333333</v>
-      </c>
-      <c r="V3" s="11" t="n">
-        <f aca="false">K3*$D3*$C3</f>
+      <c r="M3" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Z7" si="0">F3*$D3*$C3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333357</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333357</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W3" s="11" t="n">
-        <f aca="false">L3*$D3*$C3</f>
+      <c r="W3" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="X3" s="11" t="n">
-        <f aca="false">M3*$D3*$C3</f>
-        <v>2.66666666666667</v>
-      </c>
-      <c r="Y3" s="11" t="n">
-        <f aca="false">N3*$D3*$C3</f>
-        <v>2.66666666666667</v>
-      </c>
-      <c r="Z3" s="11" t="n">
-        <f aca="false">O3*$D3*$C3</f>
-        <v>1.33333333333333</v>
+      <c r="X3" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666639</v>
+      </c>
+      <c r="Y3" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666639</v>
+      </c>
+      <c r="Z3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333359</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="9">
         <v>0.5</v>
       </c>
-      <c r="G4" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M4" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N4" s="10" t="n">
+      <c r="G4" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H4" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I4" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J4" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N4" s="9">
         <v>0.5</v>
       </c>
-      <c r="O4" s="10" t="n">
+      <c r="O4" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="11" t="n">
-        <f aca="false">F4*$D4*$C4</f>
+      <c r="Q4" s="10">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="R4" s="11" t="n">
-        <f aca="false">G4*$D4*$C4</f>
+      <c r="R4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="V4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="X4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="Y4" s="10">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z4" s="10">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666696</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666696</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V5" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="W5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666698</v>
+      </c>
+      <c r="X5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L6" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M6" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333359</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666639</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333357</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333357</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="X6" s="10">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333357</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="S4" s="11" t="n">
-        <f aca="false">H4*$D4*$C4</f>
-        <v>7.5</v>
-      </c>
-      <c r="T4" s="11" t="n">
-        <f aca="false">I4*$D4*$C4</f>
-        <v>7.5</v>
-      </c>
-      <c r="U4" s="11" t="n">
-        <f aca="false">J4*$D4*$C4</f>
-        <v>7.5</v>
-      </c>
-      <c r="V4" s="11" t="n">
-        <f aca="false">K4*$D4*$C4</f>
-        <v>6</v>
-      </c>
-      <c r="W4" s="11" t="n">
-        <f aca="false">L4*$D4*$C4</f>
-        <v>6</v>
-      </c>
-      <c r="X4" s="11" t="n">
-        <f aca="false">M4*$D4*$C4</f>
-        <v>6</v>
-      </c>
-      <c r="Y4" s="11" t="n">
-        <f aca="false">N4*$D4*$C4</f>
-        <v>4.5</v>
-      </c>
-      <c r="Z4" s="11" t="n">
-        <f aca="false">O4*$D4*$C4</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="F7" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H7" s="9">
         <v>0.5</v>
       </c>
-      <c r="K5" s="10" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L5" s="10" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M5" s="10" t="n">
+      <c r="I7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="N7" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="10" t="n">
+      <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="O5" s="10" t="n">
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="V7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="W7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="X7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="Y7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="11" t="n">
-        <f aca="false">F5*$D5*$C5</f>
-        <v>8.33333333333333</v>
-      </c>
-      <c r="R5" s="11" t="n">
-        <f aca="false">G5*$D5*$C5</f>
-        <v>8.33333333333333</v>
-      </c>
-      <c r="S5" s="11" t="n">
-        <f aca="false">H5*$D5*$C5</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="T5" s="11" t="n">
-        <f aca="false">I5*$D5*$C5</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="U5" s="11" t="n">
-        <f aca="false">J5*$D5*$C5</f>
-        <v>5</v>
-      </c>
-      <c r="V5" s="11" t="n">
-        <f aca="false">K5*$D5*$C5</f>
-        <v>3.33333333333333</v>
-      </c>
-      <c r="W5" s="11" t="n">
-        <f aca="false">L5*$D5*$C5</f>
-        <v>1.66666666666667</v>
-      </c>
-      <c r="X5" s="11" t="n">
-        <f aca="false">M5*$D5*$C5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11" t="n">
-        <f aca="false">N5*$D5*$C5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11" t="n">
-        <f aca="false">O5*$D5*$C5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M6" s="10" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N6" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="O6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="11" t="n">
-        <f aca="false">F6*$D6*$C6</f>
-        <v>1.33333333333333</v>
-      </c>
-      <c r="R6" s="11" t="n">
-        <f aca="false">G6*$D6*$C6</f>
-        <v>2.66666666666667</v>
-      </c>
-      <c r="S6" s="11" t="n">
-        <f aca="false">H6*$D6*$C6</f>
-        <v>4</v>
-      </c>
-      <c r="T6" s="11" t="n">
-        <f aca="false">I6*$D6*$C6</f>
-        <v>4</v>
-      </c>
-      <c r="U6" s="11" t="n">
-        <f aca="false">J6*$D6*$C6</f>
-        <v>5.33333333333333</v>
-      </c>
-      <c r="V6" s="11" t="n">
-        <f aca="false">K6*$D6*$C6</f>
-        <v>5.33333333333333</v>
-      </c>
-      <c r="W6" s="11" t="n">
-        <f aca="false">L6*$D6*$C6</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="X6" s="11" t="n">
-        <f aca="false">M6*$D6*$C6</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="Y6" s="11" t="n">
-        <f aca="false">N6*$D6*$C6</f>
-        <v>5.33333333333333</v>
-      </c>
-      <c r="Z6" s="11" t="n">
-        <f aca="false">O6*$D6*$C6</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K7" s="10" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L7" s="10" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M7" s="10" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="N7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11" t="n">
-        <f aca="false">F7*$D7*$C7</f>
-        <v>4</v>
-      </c>
-      <c r="R7" s="11" t="n">
-        <f aca="false">G7*$D7*$C7</f>
-        <v>4</v>
-      </c>
-      <c r="S7" s="11" t="n">
-        <f aca="false">H7*$D7*$C7</f>
-        <v>3</v>
-      </c>
-      <c r="T7" s="11" t="n">
-        <f aca="false">I7*$D7*$C7</f>
-        <v>3</v>
-      </c>
-      <c r="U7" s="11" t="n">
-        <f aca="false">J7*$D7*$C7</f>
-        <v>2</v>
-      </c>
-      <c r="V7" s="11" t="n">
-        <f aca="false">K7*$D7*$C7</f>
-        <v>2</v>
-      </c>
-      <c r="W7" s="11" t="n">
-        <f aca="false">L7*$D7*$C7</f>
-        <v>1</v>
-      </c>
-      <c r="X7" s="11" t="n">
-        <f aca="false">M7*$D7*$C7</f>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11" t="n">
-        <f aca="false">N7*$D7*$C7</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11" t="n">
-        <f aca="false">O7*$D7*$C7</f>
+      <c r="Z7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>